--- a/doc/TWLKR Dispatch Dashboard Project  MileStone.xlsx
+++ b/doc/TWLKR Dispatch Dashboard Project  MileStone.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teckwah-dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teckwah-dashboard\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FD0909-A04D-44F1-88E9-4BB926C2A752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C10FA6B-065E-4B5B-A107-4414CA8C5BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="97">
   <si>
     <t>Subject</t>
   </si>
@@ -428,6 +428,10 @@
   </si>
   <si>
     <t>1-5-4. 부산 허브 기준</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jan</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -1641,140 +1645,140 @@
     <xf numFmtId="49" fontId="26" fillId="38" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="39" borderId="23" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="23" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="38" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="38" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="38" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="38" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="38" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="38" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="38" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="3" xfId="59">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="38" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="3" xfId="17" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="38" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="38" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="38" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="38" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="29" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="30" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="38" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="38" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="38" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="39" borderId="23" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="29" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="30" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="23" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="38" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="38" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="38" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="38" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="38" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="38" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="38" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="3" xfId="59">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="38" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="38" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="3" xfId="17" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="38" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="38" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -2094,7 +2098,7 @@
       <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14:D14"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
@@ -2112,67 +2116,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="60" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="47"/>
       <c r="E1" s="4"/>
       <c r="F1" s="12"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:44" s="58" customFormat="1" ht="35.450000000000003" customHeight="1">
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="M2" s="58" t="s">
+    <row r="2" spans="1:44" s="49" customFormat="1" ht="35.450000000000003" customHeight="1">
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="58" t="s">
+      <c r="Q2" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="58" t="s">
+      <c r="U2" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="Y2" s="58" t="s">
+      <c r="Y2" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="AD2" s="58" t="s">
+      <c r="AD2" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="AH2" s="58" t="s">
+      <c r="AH2" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="AM2" s="58" t="s">
+      <c r="AM2" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="AQ2" s="58" t="s">
+      <c r="AQ2" s="49" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:44" s="2" customFormat="1" ht="27.75" thickBot="1">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="42" t="s">
         <v>49</v>
       </c>
       <c r="I3" s="19" t="s">
@@ -2187,7 +2194,7 @@
       <c r="L3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="63" t="s">
+      <c r="M3" s="54" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="19" t="s">
@@ -2291,26 +2298,26 @@
       <c r="B4" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77" t="s">
+      <c r="D4" s="78"/>
+      <c r="E4" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="79" t="s">
+      <c r="G4" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="80" t="s">
+      <c r="H4" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
       <c r="M4" s="17"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
@@ -2336,26 +2343,26 @@
       <c r="B5" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="39" t="s">
+      <c r="D5" s="76"/>
+      <c r="E5" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="62" t="s">
         <v>36</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
       <c r="O5" s="31"/>
@@ -2381,30 +2388,30 @@
       <c r="B6" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38" t="s">
+      <c r="D6" s="69"/>
+      <c r="E6" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="43" t="s">
         <v>48</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
       <c r="L6" s="23"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
@@ -2441,18 +2448,18 @@
       <c r="B7" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39" t="s">
+      <c r="D7" s="80"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="43" t="s">
         <v>75</v>
       </c>
       <c r="I7" s="17"/>
@@ -2499,30 +2506,30 @@
       <c r="B8" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38" t="s">
+      <c r="D8" s="69"/>
+      <c r="E8" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
       <c r="Q8" s="20"/>
       <c r="R8" s="20"/>
       <c r="S8" s="20"/>
@@ -2558,29 +2565,29 @@
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="32"/>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
       <c r="Q9" s="20"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
@@ -2616,19 +2623,19 @@
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="32"/>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="55" t="s">
+      <c r="H10" s="46" t="s">
         <v>50</v>
       </c>
       <c r="I10" s="17"/>
@@ -2674,19 +2681,19 @@
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="32"/>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="55" t="s">
+      <c r="H11" s="46" t="s">
         <v>52</v>
       </c>
       <c r="I11" s="17"/>
@@ -2732,19 +2739,19 @@
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="32"/>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="55" t="s">
+      <c r="H12" s="46" t="s">
         <v>54</v>
       </c>
       <c r="I12" s="17"/>
@@ -2791,20 +2798,20 @@
       <c r="B13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38" t="s">
+      <c r="D13" s="69"/>
+      <c r="E13" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="H13" s="43" t="s">
         <v>63</v>
       </c>
       <c r="I13" s="22"/>
@@ -2851,20 +2858,20 @@
       <c r="B14" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38" t="s">
+      <c r="D14" s="69"/>
+      <c r="E14" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="53" t="s">
+      <c r="G14" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="53" t="s">
+      <c r="H14" s="44" t="s">
         <v>65</v>
       </c>
       <c r="I14" s="22"/>
@@ -2911,20 +2918,20 @@
       <c r="B15" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44" t="s">
+      <c r="D15" s="71"/>
+      <c r="E15" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="54" t="s">
+      <c r="H15" s="45" t="s">
         <v>38</v>
       </c>
       <c r="I15" s="29"/>

--- a/doc/TWLKR Dispatch Dashboard Project  MileStone.xlsx
+++ b/doc/TWLKR Dispatch Dashboard Project  MileStone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teckwah-dashboard\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C10FA6B-065E-4B5B-A107-4414CA8C5BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F9E6A9-EDB5-4338-AFA8-DD341FDAEA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Milestone" sheetId="6" r:id="rId1"/>
@@ -2095,24 +2095,24 @@
   <dimension ref="A1:AR84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="25" customWidth="1"/>
-    <col min="3" max="3" width="2.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="2.08203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="52.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="14" customWidth="1"/>
-    <col min="7" max="8" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.125" customWidth="1"/>
-    <col min="12" max="20" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.08203125" customWidth="1"/>
+    <col min="12" max="20" width="6.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="60" customHeight="1">
@@ -2125,7 +2125,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:44" s="49" customFormat="1" ht="35.450000000000003" customHeight="1">
+    <row r="2" spans="1:44" s="49" customFormat="1" ht="35.5" customHeight="1">
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -2161,7 +2161,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:44" s="2" customFormat="1" ht="27.75" thickBot="1">
+    <row r="3" spans="1:44" s="2" customFormat="1" ht="32.5" thickBot="1">
       <c r="A3" s="40" t="s">
         <v>67</v>
       </c>
